--- a/2drugs.xlsx
+++ b/2drugs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\00-winservices\Gongora\Mathilde\2drugs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathilde.robin\Documents\__Treatment resistance\Team tools\EDITH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491A8B9-257F-44A9-BC32-755F9C21E2B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line1" sheetId="1" r:id="rId1"/>
@@ -25,21 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>drugA</t>
   </si>
   <si>
     <t>drugB</t>
   </si>
-  <si>
-    <t>title</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,27 +372,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -411,7 +407,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -431,7 +427,7 @@
         <v>55.374032700000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3.12</v>
       </c>
@@ -451,7 +447,7 @@
         <v>57.953568400000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>6.25</v>
       </c>
@@ -471,7 +467,7 @@
         <v>52.622527900000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>12.5</v>
       </c>
@@ -491,7 +487,7 @@
         <v>57.523645700000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>25</v>
       </c>
@@ -511,7 +507,7 @@
         <v>42.562338799999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>50</v>
       </c>
@@ -531,7 +527,7 @@
         <v>28.460877</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>100</v>
       </c>
@@ -551,7 +547,7 @@
         <v>20.464316400000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>0</v>
       </c>
@@ -568,7 +564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0</v>
       </c>
@@ -588,7 +584,7 @@
         <v>55.374032700000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>3.12</v>
       </c>
@@ -608,7 +604,7 @@
         <v>57.953568400000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>6.25</v>
       </c>
@@ -628,7 +624,7 @@
         <v>52.622527900000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12.5</v>
       </c>
@@ -648,7 +644,7 @@
         <v>57.523645700000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>25</v>
       </c>
@@ -668,7 +664,7 @@
         <v>42.562338799999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>50</v>
       </c>
@@ -688,7 +684,7 @@
         <v>28.460877</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>100</v>
       </c>
@@ -715,30 +711,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="6"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -746,7 +740,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="3">
         <v>0</v>
@@ -764,7 +758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -784,7 +778,7 @@
         <v>55.374032700000001</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3.12</v>
       </c>
@@ -804,7 +798,7 @@
         <v>57.953568400000002</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>6.25</v>
       </c>
@@ -824,7 +818,7 @@
         <v>52.622527900000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>12.5</v>
       </c>
@@ -844,7 +838,7 @@
         <v>57.523645700000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>25</v>
       </c>
@@ -864,7 +858,7 @@
         <v>42.562338799999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>50</v>
       </c>
@@ -884,7 +878,7 @@
         <v>28.460877</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>100</v>
       </c>
@@ -904,7 +898,7 @@
         <v>20.464316400000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -912,7 +906,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3">
         <v>0</v>
@@ -930,7 +924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0</v>
       </c>
@@ -950,7 +944,7 @@
         <v>55.374032700000001</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>3.12</v>
       </c>
@@ -970,7 +964,7 @@
         <v>57.953568400000002</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>6.25</v>
       </c>
@@ -990,7 +984,7 @@
         <v>52.622527900000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>12.5</v>
       </c>
@@ -1010,7 +1004,7 @@
         <v>57.523645700000003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>25</v>
       </c>
@@ -1030,7 +1024,7 @@
         <v>42.562338799999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>50</v>
       </c>
@@ -1050,7 +1044,7 @@
         <v>28.460877</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>100</v>
       </c>

--- a/2drugs.xlsx
+++ b/2drugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathilde.robin\Documents\__Treatment resistance\Team tools\EDITH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C491A8B9-257F-44A9-BC32-755F9C21E2B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312E6AB4-DF43-466F-B969-E1BA742C3E2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>drugA</t>
   </si>
   <si>
     <t>drugB</t>
+  </si>
+  <si>
+    <t>drugA_gem</t>
+  </si>
+  <si>
+    <t>drugB_carbo</t>
   </si>
 </sst>
 </file>
@@ -376,17 +382,17 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="6"/>
     </row>
